--- a/名簿/歴代記録.xlsx
+++ b/名簿/歴代記録.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotaro\Desktop\KIT_T-F\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotaro\Desktop\KIT_T-F\名簿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A320A144-C521-447F-9ADC-5CED6CD6B8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B5D512-551A-4F90-BB82-B6526C4668B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{A96D06DF-88A0-41CE-969E-C1255E4D64EE}"/>
+    <workbookView xWindow="12690" yWindow="0" windowWidth="13020" windowHeight="15585" firstSheet="13" activeTab="16" xr2:uid="{A96D06DF-88A0-41CE-969E-C1255E4D64EE}"/>
   </bookViews>
   <sheets>
     <sheet name="100ｍ" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="157">
   <si>
     <t>大倉隆平</t>
     <rPh sb="0" eb="4">
@@ -567,10 +567,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>19.06.23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第50回九州CS</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -584,10 +580,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>22.09.25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>13"94</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1112,10 +1104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15.09.27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>51m35</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1245,6 +1233,48 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タクム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順位</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大会名</t>
+    <rPh sb="0" eb="3">
+      <t>タイカイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1253,7 +1283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,6 +1294,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1292,29 +1331,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1653,113 +1680,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23363BF-1896-4469-8BE8-1F8F70AEEB86}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F2" s="1">
         <v>44507</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F3" s="1">
         <v>43680</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F4" s="1">
         <v>45080</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F5" s="1">
         <v>45080</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F6" s="1">
         <v>45214</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1769,29 +1819,72 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BE7893-75FC-4976-8B5C-6DDD88AB15B0}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F2" s="1">
         <v>45080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1802,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2796433-599A-4868-8E2F-E76D45B4C081}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1815,114 +1908,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E5" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3">
-        <v>42869</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3">
-        <v>42629</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3">
-        <v>42272</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="F5" s="1">
         <v>42994</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E16" s="1"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1932,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F093D06C-2271-44A1-8F71-A5395EEA0959}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="F5:G7"/>
+      <selection activeCell="F6" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1943,96 +2016,119 @@
     <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="3">
-        <v>42630</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="3">
-        <v>42273</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D6" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="3">
-        <v>44825</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43604</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F6" s="1">
         <v>43358</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2042,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD78A71E-B125-43A7-AE88-CA9869EC9982}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2053,136 +2149,125 @@
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F4" s="1">
         <v>44849</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D6" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="3">
-        <v>42630</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="3">
-        <v>44849</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3">
-        <v>42510</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F6" s="1">
         <v>43023</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2192,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E42CB03-424A-4BDC-8C7A-EBD841BD98FB}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="F5" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2204,79 +2289,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F5" s="1">
         <v>45080</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3">
-        <v>42659</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43023</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45080</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2286,118 +2401,107 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99170B55-1C66-485A-982A-6D729947F7F5}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3">
-        <v>44465</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="F3" s="1">
+        <v>42273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="3">
-        <v>42273</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F4" s="1">
         <v>44850</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2407,68 +2511,76 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007B87B3-795B-434B-A17E-07AC616C314F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F2" s="1">
+        <v>42274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2478,66 +2590,106 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8A5559-EEA7-4120-8FC6-5C8BAB0C6B49}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="6">
-        <v>44849</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="C4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="3">
-        <v>42273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F4" s="1">
         <v>43061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2548,112 +2700,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7669E-71A8-4A90-8A20-89EA7C19151C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="21.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F2" s="1">
         <v>44485</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F3" s="1">
         <v>42659</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F5" s="1">
         <v>44655</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D7" s="1"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2663,132 +2821,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202A73AC-D066-4A67-BDB1-F9F33A2D75ED}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F2" s="1">
         <v>44703</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F3" s="1">
         <v>42658</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F5" s="1">
         <v>45191</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F6" s="1">
         <v>45080</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2798,117 +2953,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8840098D-0863-4B5F-82C0-3E77EF4FB569}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F2" s="1">
         <v>43238</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F3" s="1">
         <v>44827</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F4" s="1">
         <v>45080</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F5" s="1">
         <v>45080</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E10" s="1"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2918,10 +3078,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693806CD-B085-4C03-B141-1ABDB6785F65}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2929,127 +3089,125 @@
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="3">
-        <v>44094</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="3">
-        <v>44828</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45444</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="3">
-        <v>42265</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F6" s="1">
         <v>43386</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3059,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35777DDF-3E5F-435A-A19C-AECEAAB74E46}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3070,43 +3228,80 @@
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3">
+      <c r="F2" s="1">
         <v>44149</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F3" s="1">
         <v>45051</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3116,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42B2C09-99BD-437D-9B7C-85E04F6A351A}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3127,51 +3322,65 @@
     <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F2" s="1">
         <v>42869</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3181,65 +3390,91 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965EF399-73EB-4F8D-A119-CF947F3B13CE}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1">
+        <v>43639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>44829</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3249,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3DFB1A-B14E-4ED7-8554-9117E5E1C496}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="G9:H10"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3260,96 +3495,110 @@
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="3">
-        <v>42511</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="F5" s="1">
         <v>44850</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43386</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="3">
-        <v>44850</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
